--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\kbtc\L4_DC\Unit_6_Office Solutions Development\git__user\osd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\kbtc\L4_DC\Unit_6_Office Solutions Development\git__user\osdsample\osd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBCAE9E-BAA4-40FC-BDB7-8DE60A5FA986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B930D61-E637-4E0C-BE91-FB1EEE8EB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10320" xr2:uid="{5C491415-06FC-4272-AB4D-0E340A7DFA67}"/>
+    <workbookView minimized="1" xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10320" xr2:uid="{5C491415-06FC-4272-AB4D-0E340A7DFA67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,11 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -426,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,158 +437,157 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
         <v>22</v>
       </c>
-      <c r="F2" s="4">
-        <f>SUM(B2:E2)</f>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F7" si="0">SUM(B2:E2)</f>
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f>SUM(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f>SUM(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6" s="3">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4">
-        <f>SUM(B6:E6)</f>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f>SUM(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
